--- a/src/test/resources/1.xlsx
+++ b/src/test/resources/1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>学生幼儿平安/意外伤害保险被保险人及受益人名单模板</t>
   </si>
@@ -94,13 +94,10 @@
     <t>J00000002</t>
   </si>
   <si>
-    <t>小熙</t>
-  </si>
-  <si>
     <t>小美5</t>
   </si>
   <si>
-    <t>首都一中9902班</t>
+    <t>j@2c.com</t>
   </si>
   <si>
     <t>J00000003</t>
@@ -109,7 +106,7 @@
     <t>小美6</t>
   </si>
   <si>
-    <t>首都一中9903班</t>
+    <t>j@3c.com</t>
   </si>
   <si>
     <t>J00000004</t>
@@ -118,7 +115,34 @@
     <t>小美7</t>
   </si>
   <si>
-    <t>首都一中9904班</t>
+    <t>j@4c.com</t>
+  </si>
+  <si>
+    <t>j@5c.com</t>
+  </si>
+  <si>
+    <t>j@6c.com</t>
+  </si>
+  <si>
+    <t>j@7c.com</t>
+  </si>
+  <si>
+    <t>j@8c.com</t>
+  </si>
+  <si>
+    <t>j@9c.com</t>
+  </si>
+  <si>
+    <t>j@10c.com</t>
+  </si>
+  <si>
+    <t>j@11c.com</t>
+  </si>
+  <si>
+    <t>j@12c.com</t>
+  </si>
+  <si>
+    <t>j@13c.com</t>
   </si>
   <si>
     <t>BJ000001</t>
@@ -2210,7 +2234,7 @@
   <dimension ref="A1:J575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2412,14 +2436,14 @@
       <c r="A8" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="88" t="s">
-        <v>23</v>
+      <c r="B8" s="88">
+        <v>5</v>
       </c>
       <c r="C8" s="88" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="88" t="s">
         <v>19</v>
@@ -2427,8 +2451,8 @@
       <c r="F8" s="89">
         <v>38354</v>
       </c>
-      <c r="G8" s="88" t="s">
-        <v>25</v>
+      <c r="G8" s="102" t="s">
+        <v>24</v>
       </c>
       <c r="H8" s="90">
         <v>42258</v>
@@ -2439,16 +2463,16 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="88" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B9" s="88">
+        <v>6</v>
       </c>
       <c r="C9" s="88" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="88" t="s">
         <v>19</v>
@@ -2456,8 +2480,8 @@
       <c r="F9" s="89">
         <v>38355</v>
       </c>
-      <c r="G9" s="88" t="s">
-        <v>28</v>
+      <c r="G9" s="102" t="s">
+        <v>27</v>
       </c>
       <c r="H9" s="90">
         <v>42259</v>
@@ -2468,16 +2492,16 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="B10" s="88">
+        <v>7</v>
       </c>
       <c r="C10" s="88" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="88" t="s">
         <v>19</v>
@@ -2485,8 +2509,8 @@
       <c r="F10" s="89">
         <v>38356</v>
       </c>
-      <c r="G10" s="88" t="s">
-        <v>31</v>
+      <c r="G10" s="102" t="s">
+        <v>30</v>
       </c>
       <c r="H10" s="90">
         <v>42260</v>
@@ -2497,34 +2521,46 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
+      <c r="B11" s="88">
+        <v>8</v>
+      </c>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
       <c r="E11" s="88"/>
       <c r="F11" s="89"/>
-      <c r="G11" s="88"/>
+      <c r="G11" s="102" t="s">
+        <v>31</v>
+      </c>
       <c r="H11" s="90"/>
       <c r="I11" s="92"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
+      <c r="B12" s="88">
+        <v>9</v>
+      </c>
       <c r="C12" s="88"/>
       <c r="D12" s="88"/>
       <c r="E12" s="88"/>
       <c r="F12" s="89"/>
-      <c r="G12" s="88"/>
+      <c r="G12" s="102" t="s">
+        <v>32</v>
+      </c>
       <c r="H12" s="90"/>
       <c r="I12" s="92"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="88"/>
-      <c r="B13" s="88"/>
+      <c r="B13" s="88">
+        <v>10</v>
+      </c>
       <c r="C13" s="88"/>
       <c r="D13" s="88"/>
       <c r="E13" s="88"/>
       <c r="F13" s="89"/>
-      <c r="G13" s="88"/>
+      <c r="G13" s="102" t="s">
+        <v>33</v>
+      </c>
       <c r="H13" s="90"/>
       <c r="I13" s="92"/>
     </row>
@@ -2535,7 +2571,9 @@
       <c r="D14" s="88"/>
       <c r="E14" s="88"/>
       <c r="F14" s="89"/>
-      <c r="G14" s="88"/>
+      <c r="G14" s="102" t="s">
+        <v>34</v>
+      </c>
       <c r="H14" s="90"/>
       <c r="I14" s="92"/>
     </row>
@@ -2546,7 +2584,9 @@
       <c r="D15" s="88"/>
       <c r="E15" s="88"/>
       <c r="F15" s="89"/>
-      <c r="G15" s="88"/>
+      <c r="G15" s="102" t="s">
+        <v>35</v>
+      </c>
       <c r="H15" s="90"/>
       <c r="I15" s="92"/>
     </row>
@@ -2557,7 +2597,9 @@
       <c r="D16" s="88"/>
       <c r="E16" s="88"/>
       <c r="F16" s="89"/>
-      <c r="G16" s="88"/>
+      <c r="G16" s="102" t="s">
+        <v>36</v>
+      </c>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
     </row>
@@ -2568,7 +2610,9 @@
       <c r="D17" s="88"/>
       <c r="E17" s="88"/>
       <c r="F17" s="89"/>
-      <c r="G17" s="88"/>
+      <c r="G17" s="102" t="s">
+        <v>37</v>
+      </c>
       <c r="H17" s="90"/>
       <c r="I17" s="92"/>
     </row>
@@ -2579,7 +2623,9 @@
       <c r="D18" s="88"/>
       <c r="E18" s="88"/>
       <c r="F18" s="89"/>
-      <c r="G18" s="88"/>
+      <c r="G18" s="102" t="s">
+        <v>38</v>
+      </c>
       <c r="H18" s="90"/>
       <c r="I18" s="92"/>
     </row>
@@ -2590,7 +2636,9 @@
       <c r="D19" s="88"/>
       <c r="E19" s="88"/>
       <c r="F19" s="89"/>
-      <c r="G19" s="88"/>
+      <c r="G19" s="102" t="s">
+        <v>39</v>
+      </c>
       <c r="H19" s="90"/>
       <c r="I19" s="92"/>
     </row>
@@ -8733,6 +8781,18 @@
     <hyperlink ref="G5" r:id="rId1" display="j@1c.com"/>
     <hyperlink ref="G6" r:id="rId1" display="j@1c.com"/>
     <hyperlink ref="G7" r:id="rId1" display="j@1c.com"/>
+    <hyperlink ref="G8" r:id="rId1" display="j@2c.com"/>
+    <hyperlink ref="G9" r:id="rId1" display="j@3c.com"/>
+    <hyperlink ref="G10" r:id="rId1" display="j@4c.com"/>
+    <hyperlink ref="G11" r:id="rId1" display="j@5c.com"/>
+    <hyperlink ref="G12" r:id="rId1" display="j@6c.com"/>
+    <hyperlink ref="G13" r:id="rId1" display="j@7c.com"/>
+    <hyperlink ref="G14" r:id="rId1" display="j@8c.com"/>
+    <hyperlink ref="G15" r:id="rId1" display="j@9c.com"/>
+    <hyperlink ref="G16" r:id="rId1" display="j@10c.com"/>
+    <hyperlink ref="G17" r:id="rId1" display="j@11c.com"/>
+    <hyperlink ref="G18" r:id="rId1" display="j@12c.com"/>
+    <hyperlink ref="G19" r:id="rId1" display="j@13c.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -8828,16 +8888,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="88" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B4" s="88" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E4" s="88" t="s">
         <v>15</v>
@@ -8846,7 +8906,7 @@
         <v>40422</v>
       </c>
       <c r="G4" s="88" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H4" s="90">
         <v>42243</v>
@@ -8858,16 +8918,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="88" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B5" s="88" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E5" s="88" t="s">
         <v>19</v>
@@ -8876,7 +8936,7 @@
         <v>40423</v>
       </c>
       <c r="G5" s="88" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H5" s="90">
         <v>42246</v>
@@ -8886,16 +8946,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="88" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E6" s="88" t="s">
         <v>15</v>
@@ -8904,7 +8964,7 @@
         <v>40424</v>
       </c>
       <c r="G6" s="88" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H6" s="90">
         <v>42246</v>
@@ -8914,16 +8974,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="88" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B7" s="88" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E7" s="88" t="s">
         <v>19</v>
@@ -8932,7 +8992,7 @@
         <v>40425</v>
       </c>
       <c r="G7" s="88" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H7" s="90">
         <v>42246</v>
@@ -8942,16 +9002,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="88" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D8" s="88" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E8" s="88" t="s">
         <v>15</v>
@@ -8960,7 +9020,7 @@
         <v>40426</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H8" s="90">
         <v>42246</v>
@@ -8970,16 +9030,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="88" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B9" s="88" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D9" s="88" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E9" s="88" t="s">
         <v>19</v>
@@ -8988,7 +9048,7 @@
         <v>40427</v>
       </c>
       <c r="G9" s="88" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H9" s="90">
         <v>42246</v>
@@ -8998,16 +9058,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="88" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D10" s="88" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E10" s="88" t="s">
         <v>15</v>
@@ -9016,7 +9076,7 @@
         <v>40428</v>
       </c>
       <c r="G10" s="88" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H10" s="90">
         <v>42246</v>
@@ -9026,16 +9086,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="88" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B11" s="88" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D11" s="88" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E11" s="88" t="s">
         <v>19</v>
@@ -9044,7 +9104,7 @@
         <v>40429</v>
       </c>
       <c r="G11" s="88" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H11" s="90">
         <v>42246</v>
@@ -9054,16 +9114,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="88" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D12" s="88" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E12" s="88" t="s">
         <v>15</v>
@@ -9072,7 +9132,7 @@
         <v>40430</v>
       </c>
       <c r="G12" s="88" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H12" s="90">
         <v>42246</v>
@@ -9082,16 +9142,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="88" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C13" s="88" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D13" s="88" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E13" s="88" t="s">
         <v>19</v>
@@ -9100,7 +9160,7 @@
         <v>40431</v>
       </c>
       <c r="G13" s="88" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H13" s="90">
         <v>42246</v>
@@ -9110,16 +9170,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="88" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D14" s="88" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E14" s="88" t="s">
         <v>15</v>
@@ -9128,7 +9188,7 @@
         <v>40432</v>
       </c>
       <c r="G14" s="88" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H14" s="90">
         <v>42252</v>
@@ -9138,16 +9198,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="88" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B15" s="88" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D15" s="88" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E15" s="88" t="s">
         <v>19</v>
@@ -9156,7 +9216,7 @@
         <v>40433</v>
       </c>
       <c r="G15" s="88" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H15" s="90">
         <v>42252</v>
@@ -15062,12 +15122,12 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -15104,7 +15164,7 @@
     <row r="1" s="1" customFormat="1" ht="20.25" spans="2:22">
       <c r="B1" s="12"/>
       <c r="G1" s="13" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
@@ -15118,13 +15178,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="20.25" spans="1:22">
       <c r="A2" s="14" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B2" s="12"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="12" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -15132,7 +15192,7 @@
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
       <c r="O2" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="T2" s="12"/>
       <c r="V2" s="12"/>
@@ -15166,11 +15226,11 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="55" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>3</v>
@@ -15181,127 +15241,127 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:22">
       <c r="A5" s="12" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K5" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" s="12" t="s">
+      <c r="R5" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="S5" s="12"/>
       <c r="T5" s="12" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="V5" s="12"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="23.25" customHeight="1" spans="1:23">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="S6" s="12"/>
       <c r="T6" s="16" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
@@ -15378,12 +15438,12 @@
     </row>
     <row r="14" s="10" customFormat="1" ht="16.5" customHeight="1" spans="1:20">
       <c r="A14" s="17" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B14" s="18"/>
       <c r="H14" s="19"/>
       <c r="I14" s="17" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="J14" s="18"/>
       <c r="P14" s="53"/>
